--- a/Time Table Mar 2018.xlsx
+++ b/Time Table Mar 2018.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Time</t>
   </si>
@@ -89,6 +89,69 @@
   </si>
   <si>
     <t>Check ดีๆ ด้วย เดือนหน้า มีวันหยุดราชการ หรือวันหยุดแห่งชาติ!!</t>
+  </si>
+  <si>
+    <t>Mon 12</t>
+  </si>
+  <si>
+    <t>Tue 13</t>
+  </si>
+  <si>
+    <t>Wed 14</t>
+  </si>
+  <si>
+    <t>Thus 15</t>
+  </si>
+  <si>
+    <t>Fri 16</t>
+  </si>
+  <si>
+    <t>Sat 17</t>
+  </si>
+  <si>
+    <t>Sun 18</t>
+  </si>
+  <si>
+    <t>Mon 19</t>
+  </si>
+  <si>
+    <t>Tue 20</t>
+  </si>
+  <si>
+    <t>Wed 21</t>
+  </si>
+  <si>
+    <t>Thus 22</t>
+  </si>
+  <si>
+    <t>Fri 23</t>
+  </si>
+  <si>
+    <t>Sat 24</t>
+  </si>
+  <si>
+    <t>Sun 25</t>
+  </si>
+  <si>
+    <t>Mon 26</t>
+  </si>
+  <si>
+    <t>Tue 27</t>
+  </si>
+  <si>
+    <t>Wed 28</t>
+  </si>
+  <si>
+    <t>Thus 29</t>
+  </si>
+  <si>
+    <t>Fri 30</t>
+  </si>
+  <si>
+    <t>Sat 31</t>
+  </si>
+  <si>
+    <t>Sun 1</t>
   </si>
 </sst>
 </file>
@@ -231,12 +294,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4868,98 +4931,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
+      <xdr:colOff>518160</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>419100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="สี่เหลี่ยมผืนผ้า 84"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14218920" y="5303520"/>
-          <a:ext cx="1493520" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ศึกษากฏแรงดึงดูด</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="800"/>
-            <a:t>เพื่อ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="800"/>
-            <a:t>Well-Being </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="800"/>
-            <a:t>และบ้านที่ดีกว่า</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
         <xdr:cNvPr id="86" name="สี่เหลี่ยมผืนผ้า 85"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13571220" y="5326380"/>
-          <a:ext cx="678180" cy="419100"/>
+          <a:off x="14439900" y="5303520"/>
+          <a:ext cx="411480" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5169,15 +5159,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5186,7 +5176,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6629400" y="2217420"/>
+          <a:off x="6667500" y="6652260"/>
           <a:ext cx="640080" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5225,14 +5215,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
+      <xdr:colOff>541020</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>426720</xdr:rowOff>
     </xdr:to>
@@ -5243,7 +5233,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6629400" y="5311140"/>
+          <a:off x="6530340" y="5311140"/>
           <a:ext cx="640080" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5339,16 +5329,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5357,7 +5347,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12611100" y="906780"/>
+          <a:off x="13456920" y="5311140"/>
           <a:ext cx="640080" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5453,196 +5443,196 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>411480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="สี่เหลี่ยมผืนผ้า 94"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13449300" y="5737860"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="สี่เหลี่ยมผืนผ้า 95"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13365480" y="6187440"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="สี่เหลี่ยมผืนผ้า 96"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13418820" y="7071360"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="สี่เหลี่ยมผืนผ้า 94"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12603480" y="1341120"/>
-          <a:ext cx="640080" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>426720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="สี่เหลี่ยมผืนผ้า 95"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12550140" y="6195060"/>
-          <a:ext cx="640080" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="สี่เหลี่ยมผืนผ้า 96"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12618720" y="2667000"/>
-          <a:ext cx="640080" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
         <xdr:cNvPr id="98" name="สี่เหลี่ยมผืนผ้า 97"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11292840" y="883920"/>
+          <a:off x="12031980" y="5311140"/>
           <a:ext cx="960120" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5805,16 +5795,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5823,7 +5813,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9296400" y="2209800"/>
+          <a:off x="9220200" y="6720840"/>
           <a:ext cx="1554480" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6013,8 +6003,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>426720</xdr:rowOff>
     </xdr:to>
@@ -6025,12 +6015,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9288780" y="1333500"/>
-          <a:ext cx="1965960" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="9288780" y="5753100"/>
+          <a:ext cx="1280160" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6063,7 +6058,27 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>HCI</a:t>
+            <a:t>HCI /check</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>คะแนน ว่า </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>drop/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>ไม่ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>drop</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
@@ -6263,13 +6278,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>426720</xdr:rowOff>
     </xdr:to>
@@ -6280,7 +6295,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11277600" y="1333500"/>
+          <a:off x="11917680" y="5753100"/>
           <a:ext cx="960120" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6319,16 +6334,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
+      <xdr:rowOff>434340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6337,8 +6352,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10957560" y="1775460"/>
-          <a:ext cx="1303020" cy="419100"/>
+          <a:off x="12199620" y="6202680"/>
+          <a:ext cx="807720" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6384,26 +6399,140 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>396240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="สี่เหลี่ยมผืนผ้า 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12024360" y="7048500"/>
+          <a:ext cx="960120" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="สี่เหลี่ยมผืนผ้า 110"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10949940" y="6644640"/>
+          <a:ext cx="579120" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="สี่เหลี่ยมผืนผ้า 109"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11285220" y="2659380"/>
-          <a:ext cx="960120" cy="419100"/>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>403860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="สี่เหลี่ยมผืนผ้า 112"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11803380" y="7498080"/>
+          <a:ext cx="883920" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6441,122 +6570,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="สี่เหลี่ยมผืนผ้า 110"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10835640" y="2217420"/>
-          <a:ext cx="960120" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>411480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="สี่เหลี่ยมผืนผ้า 112"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11277600" y="3086100"/>
-          <a:ext cx="1257300" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>518160</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -6573,8 +6588,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11285220" y="3535680"/>
-          <a:ext cx="1257300" cy="419100"/>
+          <a:off x="11788140" y="7955280"/>
+          <a:ext cx="754380" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6612,14 +6627,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>434340</xdr:rowOff>
     </xdr:to>
@@ -6630,8 +6645,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13616940" y="5760720"/>
-          <a:ext cx="678180" cy="419100"/>
+          <a:off x="14455140" y="5760720"/>
+          <a:ext cx="434340" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6669,26 +6684,83 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:rowOff>411480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="สี่เหลี่ยมผืนผ้า 115"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14462760" y="6179820"/>
+          <a:ext cx="434340" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="สี่เหลี่ยมผืนผ้า 115"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13594080" y="6202680"/>
-          <a:ext cx="678180" cy="419100"/>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>403860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="สี่เหลี่ยมผืนผ้า 116"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14401800" y="7056120"/>
+          <a:ext cx="419100" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6726,65 +6798,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="สี่เหลี่ยมผืนผ้า 116"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13624560" y="2682240"/>
-          <a:ext cx="678180" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
@@ -6801,8 +6816,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14592300" y="6659880"/>
-          <a:ext cx="640080" cy="419100"/>
+          <a:off x="14813280" y="6659880"/>
+          <a:ext cx="419100" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6840,73 +6855,73 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="สี่เหลี่ยมผืนผ้า 118"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13914120" y="7520940"/>
+          <a:ext cx="678180" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:colOff>640080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="สี่เหลี่ยมผืนผ้า 118"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12915900" y="7536180"/>
-          <a:ext cx="678180" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>434340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6915,7 +6930,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12900660" y="7978140"/>
+          <a:off x="13898880" y="7970520"/>
           <a:ext cx="678180" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7244,8 +7259,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
@@ -7262,8 +7277,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14234160" y="5753100"/>
-          <a:ext cx="1524000" cy="419100"/>
+          <a:off x="14881860" y="5753100"/>
+          <a:ext cx="876300" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7343,8 +7358,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -7361,8 +7376,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14249400" y="6187440"/>
-          <a:ext cx="1493520" cy="419100"/>
+          <a:off x="14859000" y="6187440"/>
+          <a:ext cx="883920" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7446,8 +7461,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
@@ -7464,8 +7479,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14333220" y="2674620"/>
-          <a:ext cx="1280160" cy="419100"/>
+          <a:off x="14912340" y="7094220"/>
+          <a:ext cx="701040" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7566,15 +7581,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
+      <xdr:rowOff>426720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7583,7 +7598,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15621000" y="5303520"/>
+          <a:off x="15438120" y="5311140"/>
           <a:ext cx="487680" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7616,13 +7631,8 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ผ่อนคลาย</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000"/>
+            <a:t>รีบนอน</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8079,16 +8089,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>411480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8097,8 +8107,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13571220" y="7536180"/>
-          <a:ext cx="1447800" cy="419100"/>
+          <a:off x="14478000" y="7505700"/>
+          <a:ext cx="914400" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8144,14 +8154,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>426720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>403860</xdr:rowOff>
     </xdr:to>
@@ -8162,8 +8172,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13571220" y="7940040"/>
-          <a:ext cx="1478280" cy="419100"/>
+          <a:off x="14478000" y="7940040"/>
+          <a:ext cx="1021080" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8323,14 +8333,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>350520</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>426720</xdr:rowOff>
     </xdr:to>
@@ -8341,8 +8351,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15034260" y="7520940"/>
-          <a:ext cx="883920" cy="419100"/>
+          <a:off x="15560040" y="7520940"/>
+          <a:ext cx="701040" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8380,16 +8390,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
+      <xdr:rowOff>419100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>411480</xdr:rowOff>
+      <xdr:rowOff>396240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8398,8 +8408,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15034260" y="7947660"/>
-          <a:ext cx="883920" cy="419100"/>
+          <a:off x="15453360" y="7932420"/>
+          <a:ext cx="640080" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9235,25 +9245,139 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
+      <xdr:rowOff>411480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="367" name="สี่เหลี่ยมผืนผ้า 366"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13014960" y="5295900"/>
+          <a:ext cx="396240" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="368" name="สี่เหลี่ยมผืนผ้า 367"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13967460" y="5303520"/>
+          <a:ext cx="426720" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="367" name="สี่เหลี่ยมผืนผ้า 366"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12169140" y="5341620"/>
+      <xdr:rowOff>411480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="369" name="สี่เหลี่ยมผืนผ้า 368"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12915900" y="5737860"/>
           <a:ext cx="396240" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9292,244 +9416,130 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>403860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="370" name="สี่เหลี่ยมผืนผ้า 369"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14066520" y="5730240"/>
+          <a:ext cx="426720" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="371" name="สี่เหลี่ยมผืนผ้า 370"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12908280" y="6187440"/>
+          <a:ext cx="396240" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="368" name="สี่เหลี่ยมผืนผ้า 367"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13167360" y="5326380"/>
-          <a:ext cx="426720" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="369" name="สี่เหลี่ยมผืนผ้า 368"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12222480" y="5791200"/>
-          <a:ext cx="396240" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าวแ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="370" name="สี่เหลี่ยมผืนผ้า 369"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13220700" y="5775960"/>
-          <a:ext cx="426720" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="371" name="สี่เหลี่ยมผืนผ้า 370"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12138660" y="6225540"/>
-          <a:ext cx="396240" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าวแ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>419100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9538,7 +9548,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13136880" y="6210300"/>
+          <a:off x="13997940" y="6187440"/>
           <a:ext cx="426720" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9635,81 +9645,195 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="374" name="สี่เหลี่ยมผืนผ้า 373"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14234160" y="6637020"/>
-          <a:ext cx="426720" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="374" name="สี่เหลี่ยมผืนผ้า 373"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14340840" y="6667500"/>
+          <a:ext cx="426720" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>358140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="375" name="สี่เหลี่ยมผืนผ้า 374"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12976860" y="7010400"/>
+          <a:ext cx="396240" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>434340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="375" name="สี่เหลี่ยมผืนผ้า 374"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12207240" y="7086600"/>
+        <xdr:cNvPr id="376" name="สี่เหลี่ยมผืนผ้า 375"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14020800" y="7086600"/>
+          <a:ext cx="426720" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="377" name="สี่เหลี่ยมผืนผ้า 376"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12527280" y="7513320"/>
           <a:ext cx="396240" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9748,82 +9872,82 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="376" name="สี่เหลี่ยมผืนผ้า 375"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13205460" y="7071360"/>
-          <a:ext cx="426720" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="378" name="สี่เหลี่ยมผืนผ้า 377"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13502640" y="7536180"/>
+          <a:ext cx="426720" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
+      <xdr:colOff>594360</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="377" name="สี่เหลี่ยมผืนผ้า 376"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12176760" y="7551420"/>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="379" name="สี่เหลี่ยมผืนผ้า 378"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12527280" y="7962900"/>
           <a:ext cx="396240" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9862,130 +9986,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="378" name="สี่เหลี่ยมผืนผ้า 377"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12519660" y="7551420"/>
-          <a:ext cx="426720" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="379" name="สี่เหลี่ยมผืนผ้า 378"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12176760" y="7985760"/>
-          <a:ext cx="396240" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าวแ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9994,7 +10004,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12519660" y="7985760"/>
+          <a:off x="13517880" y="7978140"/>
           <a:ext cx="426720" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12391,8 +12401,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>426720</xdr:rowOff>
     </xdr:to>
@@ -12403,8 +12413,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9288780" y="1333500"/>
-          <a:ext cx="1965960" cy="419100"/>
+          <a:off x="9288780" y="10172700"/>
+          <a:ext cx="1143000" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12900,6 +12910,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -12932,7 +12945,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Lab Phy II</a:t>
+            <a:t>Lab Phy II E3</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
@@ -17893,6 +17906,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -17925,7 +17941,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Lab Phy II</a:t>
+            <a:t>Lab Phy II Mg3</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
@@ -22886,6 +22902,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -22918,7 +22937,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Lab Phy II</a:t>
+            <a:t>Lab Phy II L3</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
@@ -25526,63 +25545,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>411480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="สี่เหลี่ยมผืนผ้า 1025"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5631180" y="5737860"/>
-          <a:ext cx="975360" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เพิ่มปฏิสัมพันธ์กับคนในชมรม</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -25777,6 +25739,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -25809,9 +25774,2115 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Lab Phy II</a:t>
+            <a:t>Lab Phy II E2</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>657240</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>425760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="422" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9243060" y="5318760"/>
+          <a:ext cx="2021220" cy="410520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>สอบ Soft Pat Lab จันทร์ที่ 5</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>437760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>21120</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>416400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="423" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6637020" y="5741280"/>
+          <a:ext cx="2002320" cy="420600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>สอบ Com Sec Discuss Tue 6</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>36000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="424" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10538460" y="5783580"/>
+          <a:ext cx="767520" cy="410640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>อ่าน Lab Phy II E2</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98220</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="426" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296400" y="6416040"/>
+          <a:ext cx="1013460" cy="311580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>อ่าน Lab Phy II E2</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>259080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>302700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>90600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="427" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10332720" y="10424160"/>
+          <a:ext cx="1239960" cy="273480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>อ่าน Lab Phy II E3</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>58860</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>387780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="428" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9235440" y="10584180"/>
+          <a:ext cx="767520" cy="410640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>อ่าน Lab Phy II E3</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>294960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="429" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10271760" y="10165080"/>
+          <a:ext cx="1607820" cy="294960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>พบหมอที่ รพ นวมินทร์</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>36000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>403020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="430" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10538460" y="14577060"/>
+          <a:ext cx="767520" cy="410640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>อ่าน Lab Phy II Mg3</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>607500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>387780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="431" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9121140" y="15003780"/>
+          <a:ext cx="767520" cy="410640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>อ่าน Lab Phy II Mg3</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>112200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>29640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="432" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10614660" y="19065240"/>
+          <a:ext cx="767520" cy="410640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>อ่าน Lab Phy II L3</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>20760</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>14400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="433" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9197340" y="19491960"/>
+          <a:ext cx="767520" cy="410640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>อ่าน Lab Phy II L3</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>405240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="435" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7170420" y="5303520"/>
+          <a:ext cx="1905000" cy="405240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เขียนนิยาย</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> รูป</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ซื้อหนังสือมาวาดรูป บันทึกออนไลน์)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>374760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="437" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10271760" y="6271260"/>
+          <a:ext cx="1181100" cy="290940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เขียนนิยาย</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> รูป</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>420480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="438" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7330440" y="6644640"/>
+          <a:ext cx="1181100" cy="405240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เขียนนิยาย</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> รูป</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="439" name="สี่เหลี่ยมผืนผ้า 438"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14859000" y="5326380"/>
+          <a:ext cx="518160" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ศึกษากฏแรงดึงดูด</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>เพื่อ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Well-Being </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>และบ้านที่ดีกว่า</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>420480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="440" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11125200" y="5318760"/>
+          <a:ext cx="899160" cy="405240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ทำการบ้าน </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Web App</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1320</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>395760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="441" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5494020" y="5288280"/>
+          <a:ext cx="473760" cy="411000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>146100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>395760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="442" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5638800" y="7056120"/>
+          <a:ext cx="473760" cy="411000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>412860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="443" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11231880" y="5753100"/>
+          <a:ext cx="883920" cy="405240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เขียนนิยาย</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> รูป</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>428100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="444" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9829800" y="7292340"/>
+          <a:ext cx="975360" cy="207120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เขียนนิยาย</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> รูป</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>420480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="445" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10081260" y="6644640"/>
+          <a:ext cx="883920" cy="405240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เขียนนิยาย</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> รูป</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="446" name="สี่เหลี่ยมผืนผ้า 445"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781800" y="2369820"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>411480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="447" name="สี่เหลี่ยมผืนผ้า 446"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7985760" y="7505700"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="448" name="สี่เหลี่ยมผืนผ้า 447"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8046720" y="7962900"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>405240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="449" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11231880" y="6187440"/>
+          <a:ext cx="899160" cy="405240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ทำการบ้าน </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Web App</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="450" name="สี่เหลี่ยมผืนผ้า 449"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12771120" y="2819400"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>411480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="451" name="สี่เหลี่ยมผืนผ้า 450"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12938760" y="7505700"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="452" name="สี่เหลี่ยมผืนผ้า 451"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12954000" y="7985760"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>405240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="453" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11148060" y="7071360"/>
+          <a:ext cx="883920" cy="405240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เขียนนิยาย</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> รูป</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>373380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="454" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9006840" y="6118860"/>
+          <a:ext cx="1295400" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ร้องเรียนกระทรวงแรงงานเรื่องการรับสมัครคนทำงาน</a:t>
+          </a:r>
+          <a:endParaRPr sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr sz="800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -26109,8 +28180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26122,32 +28193,32 @@
       <c r="A1" s="1">
         <v>43160</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="12"/>
     </row>
     <row r="2" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -26433,7 +28504,7 @@
       <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -26441,32 +28512,32 @@
       <c r="A11" s="1">
         <v>43160</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="12"/>
     </row>
     <row r="12" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -26757,32 +28828,32 @@
       <c r="A21" s="1">
         <v>43160</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="12"/>
     </row>
     <row r="22" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
@@ -26863,7 +28934,7 @@
     </row>
     <row r="23" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -26892,7 +28963,7 @@
     </row>
     <row r="24" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -26921,7 +28992,7 @@
     </row>
     <row r="25" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -26950,7 +29021,7 @@
     </row>
     <row r="26" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -26979,7 +29050,7 @@
     </row>
     <row r="27" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -27008,7 +29079,7 @@
     </row>
     <row r="28" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -27037,7 +29108,7 @@
     </row>
     <row r="29" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -27069,32 +29140,32 @@
       <c r="A31" s="1">
         <v>43160</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="12"/>
     </row>
     <row r="32" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
@@ -27175,7 +29246,7 @@
     </row>
     <row r="33" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -27204,7 +29275,7 @@
     </row>
     <row r="34" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -27233,7 +29304,7 @@
     </row>
     <row r="35" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -27262,7 +29333,7 @@
     </row>
     <row r="36" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -27291,7 +29362,7 @@
     </row>
     <row r="37" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -27320,7 +29391,7 @@
     </row>
     <row r="38" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -27349,7 +29420,7 @@
     </row>
     <row r="39" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -27381,32 +29452,32 @@
       <c r="A41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="12"/>
     </row>
     <row r="42" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -27487,7 +29558,7 @@
     </row>
     <row r="43" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -27516,7 +29587,7 @@
     </row>
     <row r="44" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -27545,7 +29616,7 @@
     </row>
     <row r="45" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -27574,7 +29645,7 @@
     </row>
     <row r="46" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -27603,7 +29674,7 @@
     </row>
     <row r="47" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -27632,7 +29703,7 @@
     </row>
     <row r="48" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -27661,7 +29732,7 @@
     </row>
     <row r="49" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>

--- a/Time Table Mar 2018.xlsx
+++ b/Time Table Mar 2018.xlsx
@@ -11258,14 +11258,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>419100</xdr:rowOff>
     </xdr:to>
@@ -11276,7 +11276,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14279880" y="883920"/>
+          <a:off x="15072360" y="9723120"/>
           <a:ext cx="1280160" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11328,16 +11328,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11346,7 +11346,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13586460" y="883920"/>
+          <a:off x="14752320" y="9799320"/>
           <a:ext cx="678180" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14526,16 +14526,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>411480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14544,7 +14544,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13190220" y="876300"/>
+          <a:off x="14455140" y="9738360"/>
           <a:ext cx="426720" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26567,16 +26567,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>374760</xdr:rowOff>
+      <xdr:rowOff>236220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26585,7 +26585,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10271760" y="6271260"/>
+          <a:off x="14264640" y="6423660"/>
           <a:ext cx="1181100" cy="290940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27813,15 +27813,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
+      <xdr:colOff>586740</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>373380</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:rowOff>350520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>289560</xdr:rowOff>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -27830,8 +27830,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9006840" y="6118860"/>
-          <a:ext cx="1295400" cy="358140"/>
+          <a:off x="9204960" y="6096000"/>
+          <a:ext cx="1691640" cy="358140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27864,7 +27864,16 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>ร้องเรียนกระทรวงแรงงานเรื่องการรับสมัครคนทำงาน</a:t>
+            <a:t>ไปร้องเรียน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> ยื่นข้อเสนอแนะเรื่องงาน การศึกษา ที่สภารัฐบาล</a:t>
           </a:r>
           <a:endParaRPr sz="800"/>
         </a:p>
@@ -27883,6 +27892,353 @@
             </a:lnSpc>
           </a:pPr>
           <a:endParaRPr sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="455" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6736080" y="6454140"/>
+          <a:ext cx="1691640" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เขียนและพิมพ์ใบข้อมูลปัญหาสังคม</a:t>
+          </a:r>
+          <a:endParaRPr sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>421020</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>311460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="456" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9006840" y="6972300"/>
+          <a:ext cx="2021220" cy="410520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>ส่ง</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t> Soft Pat Lab </a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>69960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="457" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="7292340"/>
+          <a:ext cx="1402080" cy="290940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ทำสอบ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Soft Pat Lab</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>403860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1920</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>372420</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="458" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9250680" y="9685020"/>
+          <a:ext cx="2021220" cy="410520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>เสนอ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t> Soft Pat Lab </a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>441000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="459" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13235940" y="9753600"/>
+          <a:ext cx="1234440" cy="410520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>!!!</a:t>
+          </a:r>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -28180,8 +28536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
